--- a/scripts/Controller.xlsx
+++ b/scripts/Controller.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17805" windowHeight="5310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" sheetId="1" r:id="rId1"/>
+    <sheet name="Suite" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -35,13 +35,7 @@
     <t>Scenario1</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>Scenario2</t>
   </si>
 </sst>
 </file>
@@ -359,15 +353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -384,14 +378,6 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
